--- a/Employee_Reports21/Errolnil Purificacion Atienza Q0541.xlsx
+++ b/Employee_Reports21/Errolnil Purificacion Atienza Q0541.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1364,11 +1364,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1411,11 +1411,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-81</v>
+        <v>-82</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1457,11 +1457,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>-307</v>
+        <v>-308</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1493,11 +1493,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1585,11 +1585,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1631,11 +1631,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1667,11 +1667,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1713,11 +1713,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
